--- a/Excel_Files/Stats_Populations/2_cm/754_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2_cm/754_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002672951846001519</v>
+        <v>0.0009609927242727423</v>
       </c>
       <c r="D2">
-        <v>0.0004001150127521999</v>
+        <v>0.001075793331227545</v>
       </c>
       <c r="E2">
-        <v>0.000308157049168331</v>
+        <v>0.0009723228984862755</v>
       </c>
       <c r="F2">
-        <v>0.0003306175141367627</v>
+        <v>0.001021782262748351</v>
       </c>
       <c r="G2">
-        <v>0.0001616480418270737</v>
+        <v>0.0007803783159829896</v>
       </c>
       <c r="H2">
-        <v>0.0004001150127521999</v>
+        <v>0.001075793331227545</v>
       </c>
       <c r="I2">
-        <v>0.0005107849578563785</v>
+        <v>0.001441223174832401</v>
       </c>
       <c r="J2">
-        <v>0.0005999752010136195</v>
+        <v>0.00143121780415188</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001058932372163474</v>
+        <v>0.0006145041707909873</v>
       </c>
       <c r="D3">
-        <v>0.0003228175437710838</v>
+        <v>0.00101098713674517</v>
       </c>
       <c r="E3">
-        <v>0.0002052539925557343</v>
+        <v>0.0008621977109166723</v>
       </c>
       <c r="F3">
-        <v>0.0001265676087382192</v>
+        <v>0.0006678258697263693</v>
       </c>
       <c r="G3">
-        <v>0.0001142849625837988</v>
+        <v>0.0006261356318486078</v>
       </c>
       <c r="H3">
-        <v>0.0002016023677808641</v>
+        <v>0.0008525614181112047</v>
       </c>
       <c r="I3">
-        <v>0.0002100086234870124</v>
+        <v>0.0009004864328094009</v>
       </c>
       <c r="J3">
-        <v>9.566157473831571E-05</v>
+        <v>0.0005745598266859569</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7.098351653314339E-05</v>
+        <v>0.0004771736040579055</v>
       </c>
       <c r="D4">
-        <v>0.0001558458734193103</v>
+        <v>0.0007136368044779938</v>
       </c>
       <c r="E4">
-        <v>0.0001279991380328288</v>
+        <v>0.0006707260563993107</v>
       </c>
       <c r="F4">
-        <v>5.012245371931452E-05</v>
+        <v>0.000380911416337212</v>
       </c>
       <c r="G4">
-        <v>4.328009144181756E-05</v>
+        <v>0.0003479179056894225</v>
       </c>
       <c r="H4">
-        <v>9.506195805590467E-05</v>
+        <v>0.0005594173021116058</v>
       </c>
       <c r="I4">
-        <v>0.0001389157154963451</v>
+        <v>0.0007237537901845894</v>
       </c>
       <c r="J4">
-        <v>3.87068857189568E-05</v>
+        <v>0.000321803396128322</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.27524651843594E-06</v>
+        <v>7.560788440574469E-05</v>
       </c>
       <c r="D5">
-        <v>5.281748717753311E-06</v>
+        <v>8.750875761434938E-05</v>
       </c>
       <c r="E5">
-        <v>4.404621344656114E-06</v>
+        <v>7.915342373564891E-05</v>
       </c>
       <c r="F5">
-        <v>2.213780787579539E-06</v>
+        <v>4.934103911497517E-05</v>
       </c>
       <c r="G5">
-        <v>1.538733732995766E-06</v>
+        <v>3.902967214451399E-05</v>
       </c>
       <c r="H5">
-        <v>2.795881239667703E-06</v>
+        <v>5.826342198477483E-05</v>
       </c>
       <c r="I5">
-        <v>3.703089390390418E-06</v>
+        <v>6.850198063568461E-05</v>
       </c>
       <c r="J5">
-        <v>3.467348491290589E-06</v>
+        <v>6.666994589413077E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.568820976870232E-06</v>
+        <v>5.505580356498885E-05</v>
       </c>
       <c r="D6">
-        <v>2.465597819901073E-06</v>
+        <v>5.405954736728497E-05</v>
       </c>
       <c r="E6">
-        <v>2.089352912521083E-06</v>
+        <v>4.815788917283285E-05</v>
       </c>
       <c r="F6">
-        <v>9.728669640092452E-07</v>
+        <v>2.945310360358123E-05</v>
       </c>
       <c r="G6">
-        <v>9.015885698786236E-07</v>
+        <v>2.753040746260829E-05</v>
       </c>
       <c r="H6">
-        <v>1.232982690663538E-06</v>
+        <v>3.421061340012062E-05</v>
       </c>
       <c r="I6">
-        <v>2.510547643845136E-06</v>
+        <v>5.373202193998448E-05</v>
       </c>
       <c r="J6">
-        <v>1.531194905628662E-06</v>
+        <v>3.789436201185485E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.263361660528464E-06</v>
+        <v>3.441677562822872E-05</v>
       </c>
       <c r="D7">
-        <v>1.238483530993777E-06</v>
+        <v>3.440751980327179E-05</v>
       </c>
       <c r="E7">
-        <v>6.320778820651951E-07</v>
+        <v>2.17801494232666E-05</v>
       </c>
       <c r="F7">
-        <v>2.166506400103344E-07</v>
+        <v>1.079991509495739E-05</v>
       </c>
       <c r="G7">
-        <v>4.295880830018793E-07</v>
+        <v>1.677009682793643E-05</v>
       </c>
       <c r="H7">
-        <v>2.166506400103344E-07</v>
+        <v>1.079991509495739E-05</v>
       </c>
       <c r="I7">
-        <v>1.380622600584794E-06</v>
+        <v>3.708588216999399E-05</v>
       </c>
       <c r="J7">
-        <v>8.153415143348355E-07</v>
+        <v>2.580955358789379E-05</v>
       </c>
     </row>
   </sheetData>
